--- a/va_facility_data_2025-02-20/San Luis Obispo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''San%20Luis%20Obispo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/San Luis Obispo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''San%20Luis%20Obispo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcd48badad3294f3abea75cd3ffd8697c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R50bf222e285d417eb8147490cac2b5f7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbccb72ddf80945d98c398f67a3ca56e6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6fadf00244934560acf43804c20aad44"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbf6378edec3548ae838b30169fa96af9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra69c341365dc4896b73920f97a4966ee"/>
   </x:sheets>
 </x:workbook>
 </file>
